--- a/src/Tests/Tests.WithWorkbookRels.DotNet.verified.xlsx
+++ b/src/Tests/Tests.WithWorkbookRels.DotNet.verified.xlsx
@@ -586,7 +586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:Y46"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A6">
@@ -2822,7 +2822,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A429FE82-D43D-475F-B8C1-614ECD80B9A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1"/>
